--- a/courses_info.xlsx
+++ b/courses_info.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Gamification</t>
   </si>
@@ -60,108 +60,6 @@
   </si>
   <si>
     <t>Starts Mar 12</t>
-  </si>
-  <si>
-    <t>The Changing Global Order</t>
-  </si>
-  <si>
-    <t>4.7 stars</t>
-  </si>
-  <si>
-    <t>Starts Mar 26</t>
-  </si>
-  <si>
-    <t>7 weeks</t>
-  </si>
-  <si>
-    <t>Design: Creation of Artifacts in Society</t>
-  </si>
-  <si>
-    <t>Bioinformatic Methods I</t>
-  </si>
-  <si>
-    <t>8 weeks</t>
-  </si>
-  <si>
-    <t>ÐÑÑÑÐ¾ÑÐ¸Ð·Ð¸ÐºÐ°: Ð¾Ñ Ð·Ð²ÐµÐ·Ð´ Ð´Ð¾ Ð³ÑÐ°Ð½Ð¸Ñ ÐÑÐµÐ»ÐµÐ½Ð½Ð¾Ð¹</t>
-  </si>
-  <si>
-    <t>4.8 stars</t>
-  </si>
-  <si>
-    <t>Russian</t>
-  </si>
-  <si>
-    <t>åªè¾ï¼åç¼å§ä¸æ ·åªè¾</t>
-  </si>
-  <si>
-    <t>Chinese (Simplified)</t>
-  </si>
-  <si>
-    <t>Starts Mar 02</t>
-  </si>
-  <si>
-    <t>From Climate Science to Action</t>
-  </si>
-  <si>
-    <t>No Upcoming Session Available</t>
-  </si>
-  <si>
-    <t>å²è¨ï¼ä¸ï¼ï¼Shi-ji (1) ï¼</t>
-  </si>
-  <si>
-    <t>5.0 stars</t>
-  </si>
-  <si>
-    <t>Chinese (Traditional)</t>
-  </si>
-  <si>
-    <t>Successful Presentation</t>
-  </si>
-  <si>
-    <t>å·¥ç¨åå­¸ 2D CAD</t>
-  </si>
-  <si>
-    <t>4.9 stars</t>
-  </si>
-  <si>
-    <t>Ãok deÄiÅkenli Fonksiyon II: Uygulamalar / Multivariable Calculus II: Applications</t>
-  </si>
-  <si>
-    <t>Rated 4.9 out of 5 of 9 ratings</t>
-  </si>
-  <si>
-    <t>Turkish</t>
-  </si>
-  <si>
-    <t>Starts Mar 05</t>
-  </si>
-  <si>
-    <t>Accounting Analytics</t>
-  </si>
-  <si>
-    <t>4.5 stars</t>
-  </si>
-  <si>
-    <t>Getting Started With Application Development</t>
-  </si>
-  <si>
-    <t>4.3 stars</t>
-  </si>
-  <si>
-    <t>1 weeks</t>
-  </si>
-  <si>
-    <t>Municipal Solid Waste Management in Developing Countries</t>
-  </si>
-  <si>
-    <t>Music and Social Action</t>
-  </si>
-  <si>
-    <t>9 weeks</t>
-  </si>
-  <si>
-    <t>Pro Tools Basics</t>
   </si>
 </sst>
 </file>
@@ -497,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,261 +488,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
